--- a/excel/vgl5verf.xlsx
+++ b/excel/vgl5verf.xlsx
@@ -440,252 +440,252 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42.71504225422609</v>
+        <v>17.66931558820575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.008268603487999848</v>
+        <v>0.02603911137682099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.006411135187388638</v>
+        <v>0.009468891754117787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.762265663299695</v>
+        <v>3.615685960011063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1504686546051017</v>
+        <v>0.1885942722242636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01426475907866625</v>
+        <v>0.01759914257293584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01228154408626711</v>
+        <v>0.0207067683070222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02129842404933397</v>
+        <v>0.02433392880196065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14.8948858235002</v>
+        <v>15.28893092469454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1467526586825134</v>
+        <v>0.2151060675002148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1977062298078236</v>
+        <v>0.29847589773681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02575068757528717</v>
+        <v>0.03295428105373202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03648557124507347</v>
+        <v>0.04313910493550635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.005173690057419184</v>
+        <v>0.009072914267414137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02961676649980539</v>
+        <v>0.03830956152656954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.486644480773054</v>
+        <v>1.087300358640909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.197623791800081</v>
+        <v>8.550701047686911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01146695868852516</v>
+        <v>0.01618903443815559</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01287773935565509</v>
+        <v>0.01642726211107524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1437451261207302</v>
+        <v>0.1836379071562708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03066768438130696</v>
+        <v>0.03699673686842814</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01197045161664641</v>
+        <v>0.01918558560842024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03890863218891025</v>
+        <v>0.04874059924015237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.02639899185608287</v>
+        <v>0.05546062449005613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.797208035177553</v>
+        <v>10.12344077298145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.009833513981259822</v>
+        <v>0.03009888915127456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.009186638556984837</v>
+        <v>0.01266012747964237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.04236642572136628</v>
+        <v>0.05012903446774178</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1960707186722758</v>
+        <v>0.2299703284033706</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>24.81427424428268</v>
+        <v>12.79154236113688</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.01703778795442921</v>
+        <v>0.02585455866798722</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.242708484991356</v>
+        <v>7.915517994333063</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.06352147325724636</v>
+        <v>0.07411591983609234</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7.747575366997928</v>
+        <v>9.621123894553246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01879315908550392</v>
+        <v>0.02345192744537747</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.004995314252879066</v>
+        <v>0.01188499000818228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.006359117465661195</v>
+        <v>0.009972784564636662</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.008998049097646944</v>
+        <v>0.01208988503749495</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.01018090277807741</v>
+        <v>0.01336927873191447</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.05023654448906061</v>
+        <v>0.07359507414201481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.3804491589380511</v>
+        <v>0.4096249882805863</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.06986172732235681</v>
+        <v>0.1001023061009871</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.008894434751358206</v>
+        <v>0.0125037046392667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.008667835437666574</v>
+        <v>0.01196863986323871</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.01186198906140986</v>
+        <v>0.01763990537186739</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01024484362786987</v>
+        <v>0.01796072093706859</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.01955428793232377</v>
+        <v>0.02720605930992687</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.03971104827442171</v>
+        <v>0.04674456556197171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.01531536403772716</v>
+        <v>0.01887862491040923</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0126670447539454</v>
+        <v>0.01708884363743236</v>
       </c>
     </row>
   </sheetData>
